--- a/plantillas/cal40_consolidado.xlsx
+++ b/plantillas/cal40_consolidado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuar\Documents\Python Scripts\cal-analizador\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EEAEA5-36E8-4864-B720-65A624112720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEAC40E-212C-463E-AFCC-AC6ACE703D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="6195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
   <si>
     <t>DATOS GENERALES</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>(65)</t>
+  </si>
+  <si>
+    <t>ARCHIVO</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,6 +754,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,40 +808,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP5"/>
+  <dimension ref="A1:BQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BQ1" sqref="BQ1:BQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1105,103 +1117,107 @@
     <col min="20" max="20" width="14.26171875" customWidth="1"/>
     <col min="21" max="21" width="10.5234375" customWidth="1"/>
     <col min="68" max="68" width="17.68359375" customWidth="1"/>
+    <col min="69" max="69" width="17.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:69" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="34" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38" t="s">
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="40" t="s">
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="42" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="44" t="s">
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="45"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BO1" s="29"/>
       <c r="BP1" s="2"/>
+      <c r="BQ1" s="46" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:69" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="40" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="9"/>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -1210,40 +1226,40 @@
       <c r="N2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="28" t="s">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="40" t="s">
         <v>13</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="30" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="30" t="s">
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
       <c r="AE2" s="13"/>
       <c r="AF2" s="14"/>
       <c r="AG2" s="14"/>
@@ -1282,8 +1298,9 @@
       <c r="BN2" s="15"/>
       <c r="BO2" s="12"/>
       <c r="BP2" s="16"/>
+      <c r="BQ2" s="47"/>
     </row>
-    <row r="3" spans="1:68" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:69" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1293,7 +1310,7 @@
       <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="16" t="s">
         <v>21</v>
       </c>
@@ -1330,10 +1347,10 @@
       <c r="P3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
       <c r="U3" s="16" t="s">
         <v>33</v>
       </c>
@@ -1446,12 +1463,13 @@
       <c r="BP3" s="16" t="s">
         <v>44</v>
       </c>
+      <c r="BQ3" s="47"/>
     </row>
-    <row r="4" spans="1:68" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:69" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="32"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="16" t="s">
         <v>45</v>
       </c>
@@ -1478,10 +1496,10 @@
       <c r="P4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16" t="s">
         <v>49</v>
@@ -1536,8 +1554,9 @@
       <c r="BN4" s="19"/>
       <c r="BO4" s="16"/>
       <c r="BP4" s="16"/>
+      <c r="BQ4" s="47"/>
     </row>
-    <row r="5" spans="1:68" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:69" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
@@ -1738,15 +1757,11 @@
       <c r="BP5" s="24" t="s">
         <v>115</v>
       </c>
+      <c r="BQ5" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="BD1:BO1"/>
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AQ1"/>
-    <mergeCell ref="AR1:BC1"/>
+  <mergeCells count="17">
+    <mergeCell ref="BQ1:BQ5"/>
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
@@ -1757,6 +1772,12 @@
     <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="S2:S4"/>
+    <mergeCell ref="BD1:BO1"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AQ1"/>
+    <mergeCell ref="AR1:BC1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ubicación (UTM) referenciada a la zona 17" sqref="F2:H4" xr:uid="{5222FF08-8BB5-4CFF-B81E-F90FB819ACD6}"/>
